--- a/案件フォルダ自動生成ツール/状態遷移表・図.xlsx
+++ b/案件フォルダ自動生成ツール/状態遷移表・図.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Gserver\999_個人フォルダ\柴田\案件フォルダ自動生成ツール\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HANO-SS\Source\Repos\Version\案件フォルダ自動生成ツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14535" windowHeight="7590" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14535" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="画面など" sheetId="1" r:id="rId1"/>
@@ -675,6 +675,63 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -691,63 +748,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2226,6 +2226,410 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142000</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>94831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1367118" y="12606618"/>
+          <a:ext cx="6977588" cy="3288507"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>162486</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>32497</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="364202" cy="325730"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4947398" y="13311468"/>
+          <a:ext cx="364202" cy="325730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>172011</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>61072</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="364202" cy="325730"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4956923" y="14012396"/>
+          <a:ext cx="364202" cy="325730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>172011</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>95812</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="364202" cy="325730"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4956923" y="14719488"/>
+          <a:ext cx="364202" cy="325730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>588309</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>76761</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="364202" cy="325730"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4006103" y="15372790"/>
+          <a:ext cx="364202" cy="325730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>229721</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>87967</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="364202" cy="325730"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2280397" y="13030761"/>
+          <a:ext cx="364202" cy="325730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>⑤</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>616324</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>145678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>229721</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>82744</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1983442" y="13088472"/>
+          <a:ext cx="296955" cy="105154"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28015</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>110378</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="364202" cy="325730"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6863603" y="13053172"/>
+          <a:ext cx="364202" cy="325730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>⑥</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2543,8 +2947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2559,7 +2963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K17" sqref="K17"/>
     </sheetView>
@@ -2597,50 +3001,50 @@
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="43" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="23"/>
+      <c r="K4" s="42"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="24"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="43"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
@@ -2662,16 +3066,16 @@
       <c r="I6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="20"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
@@ -2693,16 +3097,16 @@
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="20"/>
+      <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="42"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
@@ -2724,16 +3128,16 @@
       <c r="I8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="20"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2755,10 +3159,10 @@
       <c r="I9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="20"/>
+      <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
@@ -2769,62 +3173,62 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="9"/>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
@@ -2837,131 +3241,131 @@
       <c r="F16" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="40"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="27" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="28"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="27" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="28"/>
+      <c r="E20" s="37"/>
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="27" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="28"/>
+      <c r="E21" s="37"/>
     </row>
     <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="27" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="28"/>
+      <c r="E22" s="37"/>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="27" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="28"/>
+      <c r="E23" s="37"/>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="12" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="29" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="29"/>
+      <c r="E26" s="31"/>
     </row>
     <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
     </row>
     <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="16" t="s">
         <v>34</v>
       </c>
       <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="29" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="29"/>
+      <c r="E29" s="31"/>
     </row>
     <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="12" t="s">
         <v>34</v>
       </c>
@@ -2969,6 +3373,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="D29:E30"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="A26:C28"/>
+    <mergeCell ref="A29:C31"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
@@ -2985,27 +3410,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D29:E30"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="A26:C28"/>
-    <mergeCell ref="A29:C31"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:K5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
